--- a/biology/Zoologie/Attulus/Attulus.xlsx
+++ b/biology/Zoologie/Attulus/Attulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attulus est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attulus est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 24/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 24/03/2024) :
 Attulus albolineatus (Kulczyński, 1895)
 Attulus ammophilus (Thorell, 1875)
 Attulus ansobicus (Andreeva, 1976)
@@ -632,10 +648,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Attidae.
-Sitticus[2], Sitticulus[3], Calositticus[4], Hypositticus[4], Sittipub[5], Sittiflor[6] et Sittilong[6] ont été placés en synonymie par Maddison, Maddison, Derkarabetian et Hedin en 2020[7].
+Sitticus, Sitticulus, Calositticus, Hypositticus, Sittipub, Sittiflor et Sittilong ont été placés en synonymie par Maddison, Maddison, Derkarabetian et Hedin en 2020.
 </t>
         </is>
       </c>
@@ -664,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Arachnidae transcaspicae ab ill. Dr. G. Radde, Dr. A. Walter et A. Conchin inventae (annis 1886-1887). » Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, vol. 39, p. 373-386 (texte intégral).</t>
         </is>
